--- a/tests/testthat/fixtures/ex2/tables/mv_item.xlsx
+++ b/tests/testthat/fixtures/ex2/tables/mv_item.xlsx
@@ -531,10 +531,10 @@
         <v>1500</v>
       </c>
       <c r="E2" t="n">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="F2" t="n">
-        <v>2.87</v>
+        <v>2.93</v>
       </c>
       <c r="G2" t="n">
         <v>1.07</v>
@@ -543,7 +543,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.93</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -560,10 +560,10 @@
         <v>1500</v>
       </c>
       <c r="E3" t="n">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="F3" t="n">
-        <v>3.13</v>
+        <v>3.27</v>
       </c>
       <c r="G3" t="n">
         <v>1.33</v>
@@ -572,7 +572,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.47</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="4">
@@ -589,19 +589,19 @@
         <v>1500</v>
       </c>
       <c r="E4" t="n">
-        <v>1423</v>
+        <v>1430</v>
       </c>
       <c r="F4" t="n">
-        <v>3.13</v>
+        <v>2.93</v>
       </c>
       <c r="G4" t="n">
         <v>1.4</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6</v>
+        <v>0.33</v>
       </c>
       <c r="I4" t="n">
-        <v>5.13</v>
+        <v>4.67</v>
       </c>
     </row>
     <row r="5">
@@ -618,19 +618,19 @@
         <v>1500</v>
       </c>
       <c r="E5" t="n">
-        <v>1425</v>
+        <v>1428</v>
       </c>
       <c r="F5" t="n">
-        <v>3.07</v>
+        <v>3.13</v>
       </c>
       <c r="G5" t="n">
         <v>1.07</v>
       </c>
       <c r="H5" t="n">
-        <v>0.87</v>
+        <v>0.6</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="6">
@@ -647,19 +647,19 @@
         <v>1500</v>
       </c>
       <c r="E6" t="n">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="F6" t="n">
-        <v>2.73</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>0.73</v>
+        <v>0.8</v>
       </c>
       <c r="H6" t="n">
-        <v>1.07</v>
+        <v>0.93</v>
       </c>
       <c r="I6" t="n">
-        <v>4.53</v>
+        <v>4.73</v>
       </c>
     </row>
     <row r="7">
@@ -676,19 +676,19 @@
         <v>1500</v>
       </c>
       <c r="E7" t="n">
-        <v>1432</v>
+        <v>1425</v>
       </c>
       <c r="F7" t="n">
-        <v>2.47</v>
+        <v>2.67</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8</v>
+        <v>0.87</v>
       </c>
       <c r="H7" t="n">
-        <v>1.27</v>
+        <v>1.47</v>
       </c>
       <c r="I7" t="n">
-        <v>4.53</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -705,19 +705,19 @@
         <v>1500</v>
       </c>
       <c r="E8" t="n">
-        <v>1422</v>
+        <v>1415</v>
       </c>
       <c r="F8" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="G8" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="H8" t="n">
-        <v>1.53</v>
+        <v>2.07</v>
       </c>
       <c r="I8" t="n">
-        <v>5.2</v>
+        <v>5.67</v>
       </c>
     </row>
     <row r="9">
@@ -734,19 +734,19 @@
         <v>1500</v>
       </c>
       <c r="E9" t="n">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="F9" t="n">
-        <v>3.33</v>
+        <v>3.07</v>
       </c>
       <c r="G9" t="n">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="H9" t="n">
-        <v>2.2</v>
+        <v>2.67</v>
       </c>
       <c r="I9" t="n">
-        <v>6.6</v>
+        <v>6.87</v>
       </c>
     </row>
     <row r="10">
@@ -763,19 +763,19 @@
         <v>1500</v>
       </c>
       <c r="E10" t="n">
-        <v>1395</v>
+        <v>1388</v>
       </c>
       <c r="F10" t="n">
-        <v>2.33</v>
+        <v>2.67</v>
       </c>
       <c r="G10" t="n">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="H10" t="n">
-        <v>3.53</v>
+        <v>3.73</v>
       </c>
       <c r="I10" t="n">
-        <v>7</v>
+        <v>7.47</v>
       </c>
     </row>
     <row r="11">
@@ -792,19 +792,19 @@
         <v>1500</v>
       </c>
       <c r="E11" t="n">
-        <v>1373</v>
+        <v>1349</v>
       </c>
       <c r="F11" t="n">
-        <v>2.8</v>
+        <v>2.93</v>
       </c>
       <c r="G11" t="n">
-        <v>0.87</v>
+        <v>0.93</v>
       </c>
       <c r="H11" t="n">
-        <v>4.8</v>
+        <v>6.2</v>
       </c>
       <c r="I11" t="n">
-        <v>8.47</v>
+        <v>10.07</v>
       </c>
     </row>
     <row r="12">
@@ -821,19 +821,19 @@
         <v>1500</v>
       </c>
       <c r="E12" t="n">
-        <v>1331</v>
+        <v>1308</v>
       </c>
       <c r="F12" t="n">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="G12" t="n">
         <v>1.07</v>
       </c>
       <c r="H12" t="n">
-        <v>7.73</v>
+        <v>9.33</v>
       </c>
       <c r="I12" t="n">
-        <v>11.27</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="13">
@@ -850,19 +850,19 @@
         <v>1500</v>
       </c>
       <c r="E13" t="n">
-        <v>1275</v>
+        <v>1246</v>
       </c>
       <c r="F13" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="G13" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="H13" t="n">
-        <v>11.2</v>
+        <v>13</v>
       </c>
       <c r="I13" t="n">
-        <v>15</v>
+        <v>16.93</v>
       </c>
     </row>
     <row r="14">
@@ -879,19 +879,19 @@
         <v>1500</v>
       </c>
       <c r="E14" t="n">
-        <v>1200</v>
+        <v>1178</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>2.47</v>
       </c>
       <c r="G14" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="H14" t="n">
-        <v>17.27</v>
+        <v>18.33</v>
       </c>
       <c r="I14" t="n">
-        <v>20</v>
+        <v>21.47</v>
       </c>
     </row>
     <row r="15">
@@ -908,19 +908,19 @@
         <v>1500</v>
       </c>
       <c r="E15" t="n">
-        <v>1099</v>
+        <v>1085</v>
       </c>
       <c r="F15" t="n">
-        <v>2.33</v>
+        <v>2.13</v>
       </c>
       <c r="G15" t="n">
-        <v>0.53</v>
+        <v>0.6</v>
       </c>
       <c r="H15" t="n">
-        <v>23.87</v>
+        <v>24.93</v>
       </c>
       <c r="I15" t="n">
-        <v>26.73</v>
+        <v>27.67</v>
       </c>
     </row>
     <row r="16">
@@ -937,19 +937,19 @@
         <v>1500</v>
       </c>
       <c r="E16" t="n">
-        <v>956</v>
+        <v>946</v>
       </c>
       <c r="F16" t="n">
-        <v>1.67</v>
+        <v>2.2</v>
       </c>
       <c r="G16" t="n">
-        <v>0.47</v>
+        <v>0.53</v>
       </c>
       <c r="H16" t="n">
-        <v>34.13</v>
+        <v>34.2</v>
       </c>
       <c r="I16" t="n">
-        <v>36.27</v>
+        <v>36.93</v>
       </c>
     </row>
     <row r="17">
@@ -966,19 +966,19 @@
         <v>1500</v>
       </c>
       <c r="E17" t="n">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="F17" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="G17" t="n">
         <v>0.27</v>
       </c>
       <c r="H17" t="n">
-        <v>46.8</v>
+        <v>47.13</v>
       </c>
       <c r="I17" t="n">
-        <v>48.73</v>
+        <v>49.13</v>
       </c>
     </row>
     <row r="18">
@@ -995,19 +995,19 @@
         <v>1500</v>
       </c>
       <c r="E18" t="n">
-        <v>486</v>
+        <v>460</v>
       </c>
       <c r="F18" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="H18" t="n">
-        <v>66.53</v>
+        <v>68.13</v>
       </c>
       <c r="I18" t="n">
-        <v>67.6</v>
+        <v>69.33</v>
       </c>
     </row>
   </sheetData>
@@ -1069,19 +1069,19 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>1252.53</v>
+        <v>1242.24</v>
       </c>
       <c r="C3" t="n">
-        <v>276.04</v>
+        <v>280.82</v>
       </c>
       <c r="D3" t="n">
-        <v>1395</v>
+        <v>1388</v>
       </c>
       <c r="E3" t="n">
-        <v>486</v>
+        <v>460</v>
       </c>
       <c r="F3" t="n">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="4">
@@ -1089,19 +1089,19 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>2.45</v>
+        <v>2.56</v>
       </c>
       <c r="C4" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="D4" t="n">
-        <v>2.47</v>
+        <v>2.67</v>
       </c>
       <c r="E4" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>3.33</v>
+        <v>3.27</v>
       </c>
     </row>
     <row r="5">
@@ -1109,16 +1109,16 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="C5" t="n">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="D5" t="n">
         <v>1.07</v>
       </c>
       <c r="E5" t="n">
-        <v>0.27</v>
+        <v>0.2</v>
       </c>
       <c r="F5" t="n">
         <v>1.4</v>
@@ -1129,19 +1129,19 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>13.14</v>
+        <v>13.71</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28</v>
+        <v>19.56</v>
       </c>
       <c r="D6" t="n">
-        <v>3.53</v>
+        <v>3.73</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>66.53</v>
+        <v>68.13</v>
       </c>
     </row>
     <row r="7">
@@ -1149,19 +1149,19 @@
         <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>16.5</v>
+        <v>17.18</v>
       </c>
       <c r="C7" t="n">
-        <v>18.4</v>
+        <v>18.72</v>
       </c>
       <c r="D7" t="n">
-        <v>7</v>
+        <v>7.47</v>
       </c>
       <c r="E7" t="n">
-        <v>3.93</v>
+        <v>4</v>
       </c>
       <c r="F7" t="n">
-        <v>67.6</v>
+        <v>69.33</v>
       </c>
     </row>
   </sheetData>
